--- a/data/trans_orig/P27_2-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P27_2-Estudios-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>123063</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>102875</v>
+        <v>102466</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>143884</v>
+        <v>143865</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1265769862713273</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1058126988021398</v>
+        <v>0.1053914339277728</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1479925530853781</v>
+        <v>0.1479733465599056</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>56</v>
@@ -765,19 +765,19 @@
         <v>57985</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>43016</v>
+        <v>44444</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>74287</v>
+        <v>72855</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04619409584211079</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03426877646671761</v>
+        <v>0.03540616281060179</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0591811756632392</v>
+        <v>0.05803968326429269</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>176</v>
@@ -786,19 +786,19 @@
         <v>181048</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>155284</v>
+        <v>155749</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>208808</v>
+        <v>206619</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.08127897505065279</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.06971254536364656</v>
+        <v>0.06992139460589035</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.09374131382061014</v>
+        <v>0.09275863553855787</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>269423</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>244470</v>
+        <v>242587</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>296124</v>
+        <v>297550</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2771162637557869</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.251450478754053</v>
+        <v>0.2495140333215561</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3045801967575825</v>
+        <v>0.3060468693827403</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>197</v>
@@ -836,19 +836,19 @@
         <v>198091</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>173793</v>
+        <v>174619</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>225316</v>
+        <v>226313</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1578093197963059</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1384523182112377</v>
+        <v>0.1391102340433359</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1794981473066831</v>
+        <v>0.1802924293892369</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>466</v>
@@ -857,19 +857,19 @@
         <v>467514</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>431729</v>
+        <v>427960</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>508373</v>
+        <v>506319</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2098834576533499</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1938185075009488</v>
+        <v>0.1921264745177958</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2282264113483375</v>
+        <v>0.227304480309756</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>294618</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>266508</v>
+        <v>266499</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>325832</v>
+        <v>324334</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3030304957049826</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2741184465182224</v>
+        <v>0.2741091600277142</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3351357313637316</v>
+        <v>0.333595052930671</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>380</v>
@@ -907,19 +907,19 @@
         <v>384003</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>352206</v>
+        <v>351962</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>415701</v>
+        <v>415440</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.305916684923942</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2805852374760835</v>
+        <v>0.2803907661641384</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3311686778327558</v>
+        <v>0.3309602780958586</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>674</v>
@@ -928,19 +928,19 @@
         <v>678621</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>633731</v>
+        <v>640753</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>722020</v>
+        <v>723560</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3046569442057434</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2845039981242928</v>
+        <v>0.2876564165401964</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3241403337055382</v>
+        <v>0.3248315397619748</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>285134</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>257448</v>
+        <v>257148</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>312635</v>
+        <v>313454</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2932762542679033</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2647993234708013</v>
+        <v>0.2644908961531633</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3215622402158584</v>
+        <v>0.3224041105673163</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>598</v>
@@ -978,19 +978,19 @@
         <v>615175</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>578996</v>
+        <v>580093</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>646466</v>
+        <v>647654</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.4900798994376412</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.4612576483150743</v>
+        <v>0.4621317536129629</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.515007722630452</v>
+        <v>0.5159537626598254</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>896</v>
@@ -999,19 +999,19 @@
         <v>900310</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>854904</v>
+        <v>855438</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>946499</v>
+        <v>945694</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.404180623090254</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3837963415370771</v>
+        <v>0.3840360137247284</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4249166091156004</v>
+        <v>0.4245554385932751</v>
       </c>
     </row>
     <row r="8">
@@ -1103,19 +1103,19 @@
         <v>249885</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>221412</v>
+        <v>223812</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>279526</v>
+        <v>283049</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1541423947912063</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1365791320398966</v>
+        <v>0.1380593068111771</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1724270134644533</v>
+        <v>0.1745998923594734</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>166</v>
@@ -1124,19 +1124,19 @@
         <v>166643</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>144154</v>
+        <v>144501</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>191413</v>
+        <v>191415</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.110379283244113</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.09548279184568302</v>
+        <v>0.09571280340213066</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1267857187211912</v>
+        <v>0.1267873499920737</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>409</v>
@@ -1145,19 +1145,19 @@
         <v>416528</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>380731</v>
+        <v>380514</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>458626</v>
+        <v>457193</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1330393789421036</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1216058747834311</v>
+        <v>0.1215364600233143</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1464857059122828</v>
+        <v>0.1460279703610399</v>
       </c>
     </row>
     <row r="10">
@@ -1174,19 +1174,19 @@
         <v>750796</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>707094</v>
+        <v>711510</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>790311</v>
+        <v>795115</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4631316641691529</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4361739072844107</v>
+        <v>0.4388978365267911</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4875066657262012</v>
+        <v>0.490470431115617</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>671</v>
@@ -1195,19 +1195,19 @@
         <v>678853</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>640797</v>
+        <v>640640</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>718431</v>
+        <v>719176</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4496508284430777</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4244441325166389</v>
+        <v>0.4243396109442888</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4758663521336927</v>
+        <v>0.4763595741767099</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1405</v>
@@ -1216,19 +1216,19 @@
         <v>1429648</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1371171</v>
+        <v>1375761</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1482904</v>
+        <v>1488673</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4566310685778093</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4379534489186148</v>
+        <v>0.4394194111284971</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4736412218547353</v>
+        <v>0.4754838264465482</v>
       </c>
     </row>
     <row r="11">
@@ -1245,19 +1245,19 @@
         <v>381312</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>348320</v>
+        <v>347832</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>418277</v>
+        <v>422303</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2352138049983062</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2148627473368427</v>
+        <v>0.2145615453873561</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2580159877672512</v>
+        <v>0.2604994423511831</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>360</v>
@@ -1266,19 +1266,19 @@
         <v>376298</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>342734</v>
+        <v>344001</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>416955</v>
+        <v>412650</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2492483738420858</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2270160365175476</v>
+        <v>0.2278552681184966</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2761777325200059</v>
+        <v>0.273326350903046</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>725</v>
@@ -1287,19 +1287,19 @@
         <v>757610</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>709697</v>
+        <v>711775</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>801190</v>
+        <v>807136</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2419814163101046</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2266780235145323</v>
+        <v>0.2273417724598548</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2559008494019493</v>
+        <v>0.2578000678615096</v>
       </c>
     </row>
     <row r="12">
@@ -1316,19 +1316,19 @@
         <v>239136</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>210339</v>
+        <v>210678</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>268482</v>
+        <v>270483</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1475121360413346</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1297485004550255</v>
+        <v>0.1299576595740309</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1656144167586465</v>
+        <v>0.1668488213014393</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>282</v>
@@ -1337,19 +1337,19 @@
         <v>287939</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>256897</v>
+        <v>260515</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>321102</v>
+        <v>318887</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1907215144707235</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1701605982969182</v>
+        <v>0.1725570132743525</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2126879301495865</v>
+        <v>0.2112210190303036</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>516</v>
@@ -1358,19 +1358,19 @@
         <v>527074</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>486529</v>
+        <v>482525</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>570995</v>
+        <v>567991</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1683481361699825</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1553979074051247</v>
+        <v>0.1541190589405166</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1823765658093389</v>
+        <v>0.1814170114902985</v>
       </c>
     </row>
     <row r="13">
@@ -1462,19 +1462,19 @@
         <v>56171</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>42793</v>
+        <v>43274</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>73418</v>
+        <v>71581</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1073346178926101</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.08177087505607267</v>
+        <v>0.08269018176515695</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1402914986805529</v>
+        <v>0.1367805441478755</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>39</v>
@@ -1483,19 +1483,19 @@
         <v>40917</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>30400</v>
+        <v>29094</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>54307</v>
+        <v>55114</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.0925770663570014</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.06878154470944794</v>
+        <v>0.06582790787507335</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1228734638513436</v>
+        <v>0.1246994699905184</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>92</v>
@@ -1504,19 +1504,19 @@
         <v>97088</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>79390</v>
+        <v>79589</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>117355</v>
+        <v>116619</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1005777060083782</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.08224348152740991</v>
+        <v>0.08245027338104523</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1215731458274123</v>
+        <v>0.1208115670240082</v>
       </c>
     </row>
     <row r="15">
@@ -1533,19 +1533,19 @@
         <v>256110</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>231781</v>
+        <v>232975</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>282171</v>
+        <v>278512</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.4893885583912243</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.4428987316087893</v>
+        <v>0.445180418331329</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.5391868125889751</v>
+        <v>0.5321952745853337</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>197</v>
@@ -1554,19 +1554,19 @@
         <v>202786</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>182062</v>
+        <v>179519</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>223277</v>
+        <v>223706</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.4588198757982442</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.4119288971439702</v>
+        <v>0.40617651371291</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.5051806153110948</v>
+        <v>0.5061526527529822</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>447</v>
@@ -1575,19 +1575,19 @@
         <v>458896</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>427160</v>
+        <v>426799</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>493018</v>
+        <v>493167</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.4753923413223269</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.442515147531425</v>
+        <v>0.4421410101151023</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.5107407643090806</v>
+        <v>0.5108952833867573</v>
       </c>
     </row>
     <row r="16">
@@ -1604,19 +1604,19 @@
         <v>120890</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>99652</v>
+        <v>100844</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>140622</v>
+        <v>140484</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.231003535812198</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1904193072905531</v>
+        <v>0.1926986187424239</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2687071898525622</v>
+        <v>0.2684434016049932</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>132</v>
@@ -1625,19 +1625,19 @@
         <v>143082</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>123772</v>
+        <v>123427</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>163166</v>
+        <v>163744</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.323733958649974</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2800446416340523</v>
+        <v>0.2792637735087518</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3691756308210043</v>
+        <v>0.3704823402254409</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>243</v>
@@ -1646,19 +1646,19 @@
         <v>263972</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>234947</v>
+        <v>234199</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>293411</v>
+        <v>292522</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2734612087256588</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2433931924959538</v>
+        <v>0.2426181304927234</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3039582821333621</v>
+        <v>0.3030373690572263</v>
       </c>
     </row>
     <row r="17">
@@ -1675,19 +1675,19 @@
         <v>90155</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>72289</v>
+        <v>72205</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>108183</v>
+        <v>107290</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1722732879039676</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1381332026652169</v>
+        <v>0.1379720754766749</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2067207739517297</v>
+        <v>0.2050154921297153</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>51</v>
@@ -1696,19 +1696,19 @@
         <v>55189</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>41557</v>
+        <v>42392</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>71546</v>
+        <v>69997</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1248690991947804</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.09402675728410639</v>
+        <v>0.09591429124244752</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1618780520782173</v>
+        <v>0.1583739145257131</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>135</v>
@@ -1717,19 +1717,19 @@
         <v>145344</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>121570</v>
+        <v>122386</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>167336</v>
+        <v>169951</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.150568743943636</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1259399351670935</v>
+        <v>0.1267855762758452</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1733511735637439</v>
+        <v>0.1760600134429086</v>
       </c>
     </row>
     <row r="18">
@@ -1821,19 +1821,19 @@
         <v>429119</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>390381</v>
+        <v>392619</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>468220</v>
+        <v>474071</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1376839542377182</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1252548602697824</v>
+        <v>0.125972883425424</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1502297503167628</v>
+        <v>0.1521070672093554</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>261</v>
@@ -1842,19 +1842,19 @@
         <v>265545</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>232780</v>
+        <v>236476</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>295707</v>
+        <v>301401</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.08280274663464207</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.07258581763265444</v>
+        <v>0.07373828626860231</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.09220784507475133</v>
+        <v>0.0939832598838745</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>677</v>
@@ -1863,19 +1863,19 @@
         <v>694664</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>645910</v>
+        <v>645080</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>749929</v>
+        <v>747796</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1098516437307737</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1021418383112444</v>
+        <v>0.1020106355604907</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1185910673054962</v>
+        <v>0.1182537735904985</v>
       </c>
     </row>
     <row r="20">
@@ -1892,19 +1892,19 @@
         <v>1276329</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1225982</v>
+        <v>1220074</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>1328948</v>
+        <v>1329913</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.4095138078012478</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.393359882628547</v>
+        <v>0.3914642412796034</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4263966993564735</v>
+        <v>0.4267064656211442</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1065</v>
@@ -1913,19 +1913,19 @@
         <v>1079730</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1020830</v>
+        <v>1030885</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1135605</v>
+        <v>1136694</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3366831336601537</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.3183169560496319</v>
+        <v>0.3214524154223587</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3541062018654114</v>
+        <v>0.3544457199224481</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>2318</v>
@@ -1934,19 +1934,19 @@
         <v>2356058</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>2283625</v>
+        <v>2282901</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>2430546</v>
+        <v>2443280</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.3725786522961891</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3611243967764149</v>
+        <v>0.3610098147948082</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3843578573616537</v>
+        <v>0.3863716751775825</v>
       </c>
     </row>
     <row r="21">
@@ -1963,19 +1963,19 @@
         <v>796820</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>748286</v>
+        <v>746964</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>848781</v>
+        <v>848402</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2556619691417693</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2400898465537467</v>
+        <v>0.2396654761512273</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2723337404975711</v>
+        <v>0.272212271879213</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>872</v>
@@ -1984,19 +1984,19 @@
         <v>903384</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>855645</v>
+        <v>856533</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>956092</v>
+        <v>956624</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2816946162502016</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.2668087853865784</v>
+        <v>0.2670855996428732</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2981303093425373</v>
+        <v>0.2982962185482599</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>1642</v>
@@ -2005,19 +2005,19 @@
         <v>1700203</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>1621314</v>
+        <v>1622637</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>1771470</v>
+        <v>1769565</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2688640969608188</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2563888524347191</v>
+        <v>0.2565979669626149</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2801339262331957</v>
+        <v>0.2798327315451854</v>
       </c>
     </row>
     <row r="22">
@@ -2034,19 +2034,19 @@
         <v>614426</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>565610</v>
+        <v>567533</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>654563</v>
+        <v>656866</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1971402688192647</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1814777399542694</v>
+        <v>0.1820947690344366</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2100185065230755</v>
+        <v>0.2107574722712587</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>931</v>
@@ -2055,19 +2055,19 @@
         <v>958302</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>902771</v>
+        <v>909300</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>1006878</v>
+        <v>1009750</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2988195034550026</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2815034453052454</v>
+        <v>0.2835394056435485</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3139665226908773</v>
+        <v>0.3148617988981764</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1547</v>
@@ -2076,19 +2076,19 @@
         <v>1572728</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1498713</v>
+        <v>1512541</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1635137</v>
+        <v>1643331</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2487056070122184</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2370011280344644</v>
+        <v>0.2391877818891083</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2585748049564318</v>
+        <v>0.2598705309245435</v>
       </c>
     </row>
     <row r="23">
@@ -2419,19 +2419,19 @@
         <v>23036</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>14658</v>
+        <v>15206</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>34355</v>
+        <v>34029</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02404182273800302</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01529781821130467</v>
+        <v>0.01587049972378173</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03585577789666828</v>
+        <v>0.03551488867883595</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>16</v>
@@ -2440,19 +2440,19 @@
         <v>16301</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>10014</v>
+        <v>9771</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>26314</v>
+        <v>25769</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01254684743668443</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.007707723083333683</v>
+        <v>0.007520923850988534</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02025383823246696</v>
+        <v>0.01983467980983129</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>38</v>
@@ -2461,19 +2461,19 @@
         <v>39337</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>28647</v>
+        <v>28019</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>54872</v>
+        <v>53119</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01742595078127112</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01269069028616098</v>
+        <v>0.01241236913290976</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02430802287370377</v>
+        <v>0.02353142343722274</v>
       </c>
     </row>
     <row r="5">
@@ -2490,19 +2490,19 @@
         <v>24496</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>16206</v>
+        <v>15795</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>37471</v>
+        <v>36762</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.02556624242337166</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.01691417884569264</v>
+        <v>0.01648472116053625</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.03910759750954791</v>
+        <v>0.03836753113530823</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>30</v>
@@ -2511,19 +2511,19 @@
         <v>32152</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>22158</v>
+        <v>22417</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>45882</v>
+        <v>45809</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.02474735350681398</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.01705498610346159</v>
+        <v>0.0172546502281682</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.03531549234688053</v>
+        <v>0.0352588450404877</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>53</v>
@@ -2532,19 +2532,19 @@
         <v>56648</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>42724</v>
+        <v>42306</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>72658</v>
+        <v>73295</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.02509493525856974</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01892672715735427</v>
+        <v>0.01874148666705237</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.03218730757278989</v>
+        <v>0.03246929363974136</v>
       </c>
     </row>
     <row r="6">
@@ -2561,19 +2561,19 @@
         <v>71603</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>56463</v>
+        <v>56783</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>89150</v>
+        <v>90132</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.07473093381372989</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.05892892810345567</v>
+        <v>0.05926347074164406</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.09304421414431985</v>
+        <v>0.09406919238609522</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>67</v>
@@ -2582,19 +2582,19 @@
         <v>71327</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>57464</v>
+        <v>55900</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>91872</v>
+        <v>88210</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.05490014643762046</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.04422983369108598</v>
+        <v>0.04302610544903812</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.0707137134542121</v>
+        <v>0.06789516219421295</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>134</v>
@@ -2603,19 +2603,19 @@
         <v>142930</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>121855</v>
+        <v>120197</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>168987</v>
+        <v>168794</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.06331742950924778</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.05398096170278566</v>
+        <v>0.05324671375325491</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.07486022699277922</v>
+        <v>0.07477478462695017</v>
       </c>
     </row>
     <row r="7">
@@ -2632,19 +2632,19 @@
         <v>839014</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>816196</v>
+        <v>816014</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>858749</v>
+        <v>857704</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.8756610010248954</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.8518467092270161</v>
+        <v>0.8516570204006804</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.8962578760136615</v>
+        <v>0.8951678875533622</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1098</v>
@@ -2653,19 +2653,19 @@
         <v>1179432</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1158871</v>
+        <v>1156434</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>1200078</v>
+        <v>1196832</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.9078056526188811</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.8919802374744715</v>
+        <v>0.8901039209736815</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.9236970687958457</v>
+        <v>0.9211987221520489</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1880</v>
@@ -2674,19 +2674,19 @@
         <v>2018447</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1984997</v>
+        <v>1986387</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>2046000</v>
+        <v>2046743</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.8941616844509114</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.8793434632682477</v>
+        <v>0.8799595205551226</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9063676245853867</v>
+        <v>0.9066969275304649</v>
       </c>
     </row>
     <row r="8">
@@ -2778,19 +2778,19 @@
         <v>60065</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>47398</v>
+        <v>46051</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>77678</v>
+        <v>77204</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.03165698270857642</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.02498115937601824</v>
+        <v>0.02427093527813739</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.04093998130651809</v>
+        <v>0.04068993826066822</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>44</v>
@@ -2799,19 +2799,19 @@
         <v>45301</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>33121</v>
+        <v>32848</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>60142</v>
+        <v>58918</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.02673343465032495</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.01954534402329484</v>
+        <v>0.01938413322892489</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.03549099028809878</v>
+        <v>0.03476897570900696</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>104</v>
@@ -2820,19 +2820,19 @@
         <v>105366</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>86225</v>
+        <v>87070</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>125596</v>
+        <v>127908</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.02933420140811942</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.0240051184067707</v>
+        <v>0.02424060552247083</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.03496608264823603</v>
+        <v>0.03560997988469213</v>
       </c>
     </row>
     <row r="10">
@@ -2849,19 +2849,19 @@
         <v>152560</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>130839</v>
+        <v>131896</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>179930</v>
+        <v>177823</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.08040653634578698</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.06895843035347637</v>
+        <v>0.06951552142956245</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.09483182380614749</v>
+        <v>0.09372092174841294</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>114</v>
@@ -2870,19 +2870,19 @@
         <v>116204</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>96713</v>
+        <v>96210</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>138907</v>
+        <v>139405</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.0685744270336982</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05707237570030138</v>
+        <v>0.05677571812337932</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.08197201503719062</v>
+        <v>0.08226626650254006</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>257</v>
@@ -2891,19 +2891,19 @@
         <v>268764</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>237354</v>
+        <v>238632</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>300560</v>
+        <v>300799</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.07482450445944783</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.06607983647119399</v>
+        <v>0.06643561027037717</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.08367664284325362</v>
+        <v>0.08374317034011017</v>
       </c>
     </row>
     <row r="11">
@@ -2920,19 +2920,19 @@
         <v>275631</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>245658</v>
+        <v>244130</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>309054</v>
+        <v>304941</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1452705031687123</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1294735043692903</v>
+        <v>0.128668027288332</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1628858511026384</v>
+        <v>0.1607182931654815</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>210</v>
@@ -2941,19 +2941,19 @@
         <v>222218</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>195760</v>
+        <v>191263</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>249935</v>
+        <v>249477</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1311360117831875</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1155224341036326</v>
+        <v>0.112868973096156</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1474921861772112</v>
+        <v>0.1472218616625905</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>480</v>
@@ -2962,19 +2962,19 @@
         <v>497849</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>457381</v>
+        <v>458896</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>542170</v>
+        <v>543506</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1386022769437758</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1273358284498056</v>
+        <v>0.1277577485352101</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1509413931843321</v>
+        <v>0.1513133296468537</v>
       </c>
     </row>
     <row r="12">
@@ -2991,19 +2991,19 @@
         <v>1409107</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1369684</v>
+        <v>1368042</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1444033</v>
+        <v>1445480</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.7426659777769242</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.7218881984496267</v>
+        <v>0.7210228036125651</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.7610734483706004</v>
+        <v>0.7618360437676586</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>1205</v>
@@ -3012,19 +3012,19 @@
         <v>1310839</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>1275542</v>
+        <v>1274651</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>1345296</v>
+        <v>1347340</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.7735561265327894</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.7527268681374304</v>
+        <v>0.752200892361873</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.7938899901770952</v>
+        <v>0.7950962143081335</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>2526</v>
@@ -3033,19 +3033,19 @@
         <v>2719945</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>2668438</v>
+        <v>2669402</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>2769720</v>
+        <v>2772989</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.7572390171886569</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.7428993132501155</v>
+        <v>0.7431677289715549</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.7710964455739989</v>
+        <v>0.7720067097917227</v>
       </c>
     </row>
     <row r="13">
@@ -3137,19 +3137,19 @@
         <v>8882</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>4209</v>
+        <v>4034</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>16503</v>
+        <v>16166</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.0189598541549496</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.008985640165215383</v>
+        <v>0.008610385170516141</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.03522786953342134</v>
+        <v>0.03450928715091938</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>6</v>
@@ -3158,19 +3158,19 @@
         <v>6689</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2779</v>
+        <v>2116</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>14949</v>
+        <v>14012</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.01526191209205926</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.006341930034729741</v>
+        <v>0.004827655560474708</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.03410963278781704</v>
+        <v>0.03197204730136437</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>15</v>
@@ -3179,19 +3179,19 @@
         <v>15571</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>8916</v>
+        <v>9245</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>25793</v>
+        <v>25749</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.01717246396354513</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.009833113970331143</v>
+        <v>0.01019612032541469</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.02844551643216579</v>
+        <v>0.02839776869969051</v>
       </c>
     </row>
     <row r="15">
@@ -3208,19 +3208,19 @@
         <v>30489</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>21169</v>
+        <v>21403</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>42692</v>
+        <v>43124</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.06508227578547247</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.04518850578187547</v>
+        <v>0.04568684368486341</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.09113045361209772</v>
+        <v>0.0920531368981248</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>25</v>
@@ -3229,19 +3229,19 @@
         <v>28336</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>18059</v>
+        <v>18181</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>41126</v>
+        <v>40326</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.06465469485493595</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.04120623086209441</v>
+        <v>0.04148462119749124</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.09383777308762295</v>
+        <v>0.0920132987443413</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>55</v>
@@ -3250,19 +3250,19 @@
         <v>58825</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>44586</v>
+        <v>44773</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>75478</v>
+        <v>75440</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.06487560571107027</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.04917178482923756</v>
+        <v>0.04937828500132509</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.08324204298028356</v>
+        <v>0.0832000836454895</v>
       </c>
     </row>
     <row r="16">
@@ -3279,19 +3279,19 @@
         <v>80295</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>65015</v>
+        <v>63902</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>98533</v>
+        <v>98556</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1713985163812346</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1387833045988698</v>
+        <v>0.1364065706815245</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2103307254011256</v>
+        <v>0.2103805743061632</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>56</v>
@@ -3300,19 +3300,19 @@
         <v>64095</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>49112</v>
+        <v>48479</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>82575</v>
+        <v>82127</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1462466377244164</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1120585742046705</v>
+        <v>0.1106158511052356</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1884121118695461</v>
+        <v>0.1873898745018299</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>134</v>
@@ -3321,19 +3321,19 @@
         <v>144390</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>120103</v>
+        <v>119798</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>168624</v>
+        <v>167288</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.159241424560425</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1324566945627184</v>
+        <v>0.1321200066998563</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1859680408575073</v>
+        <v>0.1844950209412556</v>
       </c>
     </row>
     <row r="17">
@@ -3350,19 +3350,19 @@
         <v>348801</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>327499</v>
+        <v>327676</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>366791</v>
+        <v>366812</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7445593536783434</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6990873675154666</v>
+        <v>0.6994646908341532</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7829601303167995</v>
+        <v>0.7830047694013298</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>306</v>
@@ -3371,19 +3371,19 @@
         <v>339147</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>318652</v>
+        <v>317726</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>358457</v>
+        <v>357199</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7738367553285884</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7270736035134079</v>
+        <v>0.7249596695028269</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8178958009747164</v>
+        <v>0.815027021567029</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>614</v>
@@ -3392,19 +3392,19 @@
         <v>687949</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>659756</v>
+        <v>662295</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>714492</v>
+        <v>715534</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7587105057649596</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7276185617590353</v>
+        <v>0.7304179627315719</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7879839335171409</v>
+        <v>0.7891331620479611</v>
       </c>
     </row>
     <row r="18">
@@ -3496,19 +3496,19 @@
         <v>91983</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>74278</v>
+        <v>74186</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>112604</v>
+        <v>110312</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02767240853459371</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.02234625151641738</v>
+        <v>0.02231830150020004</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.0338761746070271</v>
+        <v>0.03318681976468332</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>66</v>
@@ -3517,19 +3517,19 @@
         <v>68291</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>52552</v>
+        <v>52922</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>84791</v>
+        <v>87864</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01989814840329737</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01531212347508721</v>
+        <v>0.01541984000425277</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.02470583233976367</v>
+        <v>0.02560105645166058</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>157</v>
@@ -3538,19 +3538,19 @@
         <v>160274</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>137920</v>
+        <v>136987</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>186952</v>
+        <v>186234</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.02372310374955367</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02041441523841482</v>
+        <v>0.02027625774795306</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.02767193897922438</v>
+        <v>0.02756569499598985</v>
       </c>
     </row>
     <row r="20">
@@ -3567,19 +3567,19 @@
         <v>207546</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>180679</v>
+        <v>178995</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>239946</v>
+        <v>239695</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.06243888735726247</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.05435627417733992</v>
+        <v>0.05384967936777552</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.07218628880215984</v>
+        <v>0.07211073068568888</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>169</v>
@@ -3588,19 +3588,19 @@
         <v>176692</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>151390</v>
+        <v>153417</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>204877</v>
+        <v>202578</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.05148297526214176</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.04411085952618869</v>
+        <v>0.04470145877384538</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.05969540755950865</v>
+        <v>0.05902560777069777</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>365</v>
@@ -3609,19 +3609,19 @@
         <v>384237</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>347975</v>
+        <v>347385</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>423985</v>
+        <v>424241</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.05687331129844805</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.05150588830063096</v>
+        <v>0.05141853310757746</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.06275660068015389</v>
+        <v>0.0627944507122729</v>
       </c>
     </row>
     <row r="21">
@@ -3638,19 +3638,19 @@
         <v>427529</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>391162</v>
+        <v>391396</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>471679</v>
+        <v>469253</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1286195776317603</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1176788208950262</v>
+        <v>0.1177493463691306</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1419019289846647</v>
+        <v>0.141172206114745</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>333</v>
@@ -3659,19 +3659,19 @@
         <v>357640</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>321396</v>
+        <v>317381</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>392812</v>
+        <v>392400</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1042062407096782</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.09364583157431182</v>
+        <v>0.09247600802516319</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1144543455879907</v>
+        <v>0.1143342639050616</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>748</v>
@@ -3680,19 +3680,19 @@
         <v>785169</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>732243</v>
+        <v>732913</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>833938</v>
+        <v>842492</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.11621766327633</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1083837748506696</v>
+        <v>0.1084829260580597</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.123436313843045</v>
+        <v>0.1247024531386968</v>
       </c>
     </row>
     <row r="22">
@@ -3709,19 +3709,19 @@
         <v>2596922</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2546655</v>
+        <v>2544902</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>2647375</v>
+        <v>2645374</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.7812691264763835</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.7661466844554388</v>
+        <v>0.7656192434760886</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.7964476043467883</v>
+        <v>0.7958455057097189</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>2609</v>
@@ -3730,19 +3730,19 @@
         <v>2829418</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>2783718</v>
+        <v>2785574</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>2875994</v>
+        <v>2875514</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.8244126356248827</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.8110969561752349</v>
+        <v>0.8116376133550736</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.8379836687331433</v>
+        <v>0.8378437620279238</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>5020</v>
@@ -3751,19 +3751,19 @@
         <v>5426340</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>5364162</v>
+        <v>5356187</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>5492651</v>
+        <v>5486744</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.8031859216756683</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.7939825213280209</v>
+        <v>0.7928021600978276</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.8130009754596166</v>
+        <v>0.8121266337016904</v>
       </c>
     </row>
     <row r="23">
@@ -4094,19 +4094,19 @@
         <v>23577</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>14597</v>
+        <v>15012</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>35188</v>
+        <v>36007</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.0322536552179508</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01996837834934736</v>
+        <v>0.02053599449888706</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04813820869189994</v>
+        <v>0.04925808565240092</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>21</v>
@@ -4115,19 +4115,19 @@
         <v>22864</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>15085</v>
+        <v>14415</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>35673</v>
+        <v>34667</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02390787165219933</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01577387787298309</v>
+        <v>0.01507298829667045</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03730125862728989</v>
+        <v>0.03624961943296479</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>43</v>
@@ -4136,19 +4136,19 @@
         <v>46441</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>33352</v>
+        <v>33722</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>61695</v>
+        <v>60542</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02752342471262487</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01976613780301642</v>
+        <v>0.01998530104181288</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03656371575697443</v>
+        <v>0.03588038821199533</v>
       </c>
     </row>
     <row r="5">
@@ -4165,19 +4165,19 @@
         <v>41357</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>30556</v>
+        <v>30504</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>54878</v>
+        <v>56091</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.05657662635829225</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.04180047343472659</v>
+        <v>0.04172976623660019</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.07507337102699675</v>
+        <v>0.07673279026495665</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>43</v>
@@ -4186,19 +4186,19 @@
         <v>46932</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>34999</v>
+        <v>34700</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>61412</v>
+        <v>61861</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.0490734694837616</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.03659612788043368</v>
+        <v>0.0362834822725124</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.06421525101134726</v>
+        <v>0.06468406891513993</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>84</v>
@@ -4207,19 +4207,19 @@
         <v>88288</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>71060</v>
+        <v>70817</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>107655</v>
+        <v>107768</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.05232398054564529</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.04211376462183701</v>
+        <v>0.04196932779128169</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.06380152924596391</v>
+        <v>0.06386852314882213</v>
       </c>
     </row>
     <row r="6">
@@ -4236,19 +4236,19 @@
         <v>89944</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>72416</v>
+        <v>72537</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>109135</v>
+        <v>109333</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1230440549629959</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.09906603005674046</v>
+        <v>0.09923082673675002</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1492974507027485</v>
+        <v>0.1495690042458455</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>61</v>
@@ -4257,19 +4257,19 @@
         <v>67580</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>52909</v>
+        <v>52885</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>86070</v>
+        <v>85577</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.0706642252946528</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.05532373755961476</v>
+        <v>0.0552981703624163</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.08999845743216177</v>
+        <v>0.08948270184551244</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>146</v>
@@ -4278,19 +4278,19 @@
         <v>157524</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>133975</v>
+        <v>135758</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>184148</v>
+        <v>185372</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.09335616931284085</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.0794001178562016</v>
+        <v>0.08045696673230147</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1091352875870171</v>
+        <v>0.1098605657487013</v>
       </c>
     </row>
     <row r="7">
@@ -4307,19 +4307,19 @@
         <v>576110</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>552970</v>
+        <v>551382</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>598886</v>
+        <v>597383</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.7881256634607611</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.7564694778684868</v>
+        <v>0.7542968938796895</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.8192825732085612</v>
+        <v>0.817227086529682</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>733</v>
@@ -4328,19 +4328,19 @@
         <v>818977</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>796468</v>
+        <v>794685</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>841003</v>
+        <v>839593</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.8563544335693862</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.8328179600364933</v>
+        <v>0.8309540363001316</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.8793859144057421</v>
+        <v>0.8779115356139322</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1324</v>
@@ -4349,19 +4349,19 @@
         <v>1395088</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1366232</v>
+        <v>1361422</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1425821</v>
+        <v>1424733</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.826796425428889</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.8096955406414342</v>
+        <v>0.8068448571677334</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.8450108652903408</v>
+        <v>0.8443657437083562</v>
       </c>
     </row>
     <row r="8">
@@ -4453,19 +4453,19 @@
         <v>91245</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>73514</v>
+        <v>72931</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>113572</v>
+        <v>113178</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.04472071053530838</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.03603045445008177</v>
+        <v>0.03574465700316638</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.05566389645742937</v>
+        <v>0.05547055563198452</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>77</v>
@@ -4474,19 +4474,19 @@
         <v>80159</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>64683</v>
+        <v>64139</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>100479</v>
+        <v>100031</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.04121408987958122</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.03325701850595399</v>
+        <v>0.03297727062376426</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.0516617032379228</v>
+        <v>0.05143091830169779</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>159</v>
@@ -4495,19 +4495,19 @@
         <v>171404</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>146634</v>
+        <v>147730</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>202765</v>
+        <v>198247</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.04300935935013767</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.03679399892474376</v>
+        <v>0.03706897549258546</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.05087849102906741</v>
+        <v>0.04974480156432112</v>
       </c>
     </row>
     <row r="10">
@@ -4524,19 +4524,19 @@
         <v>203259</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>174095</v>
+        <v>176573</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>232694</v>
+        <v>234876</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.0996208527779593</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.08532727032558847</v>
+        <v>0.08654174665889426</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1140474365708657</v>
+        <v>0.1151171403953083</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>169</v>
@@ -4545,19 +4545,19 @@
         <v>174452</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>151042</v>
+        <v>152098</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>202352</v>
+        <v>203134</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.08969478549860489</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.07765876372759276</v>
+        <v>0.07820132804600986</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1040395791408773</v>
+        <v>0.1044419302673525</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>359</v>
@@ -4566,19 +4566,19 @@
         <v>377711</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>342817</v>
+        <v>338164</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>417370</v>
+        <v>416300</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.09477659140202079</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.08602082922920386</v>
+        <v>0.08485348703187107</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1047280484099303</v>
+        <v>0.1044596266932162</v>
       </c>
     </row>
     <row r="11">
@@ -4595,19 +4595,19 @@
         <v>417104</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>378543</v>
+        <v>385413</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>456139</v>
+        <v>457089</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2044304028917926</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1855306141393379</v>
+        <v>0.1888979179771314</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2235622173203236</v>
+        <v>0.2240274945690295</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>374</v>
@@ -4616,19 +4616,19 @@
         <v>388887</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>353879</v>
+        <v>355270</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>423345</v>
+        <v>423797</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.19994702975237</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1819475406961974</v>
+        <v>0.1826627476885599</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2176633695432849</v>
+        <v>0.2178959411533131</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>764</v>
@@ -4637,19 +4637,19 @@
         <v>805991</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>752672</v>
+        <v>757417</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>858268</v>
+        <v>863924</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2022423629841447</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1888633375301116</v>
+        <v>0.1900539151212888</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2153597586394625</v>
+        <v>0.2167790934697078</v>
       </c>
     </row>
     <row r="12">
@@ -4666,19 +4666,19 @@
         <v>1328716</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1281051</v>
+        <v>1282069</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1372531</v>
+        <v>1369496</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.6512280337949398</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.6278663054093682</v>
+        <v>0.6283655831140349</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.6727025183572821</v>
+        <v>0.6712148697458519</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>1246</v>
@@ -4687,19 +4687,19 @@
         <v>1301452</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>1260688</v>
+        <v>1255182</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>1342793</v>
+        <v>1344168</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.6691440948694439</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.6481848806383848</v>
+        <v>0.6453540077772686</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.6903992487965455</v>
+        <v>0.6911065512050242</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>2503</v>
@@ -4708,19 +4708,19 @@
         <v>2630169</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>2568709</v>
+        <v>2567601</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>2689556</v>
+        <v>2691437</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.6599716862636968</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.644550039471771</v>
+        <v>0.644271918944373</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.6748734119879847</v>
+        <v>0.6753453695978817</v>
       </c>
     </row>
     <row r="13">
@@ -4812,19 +4812,19 @@
         <v>10827</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>5766</v>
+        <v>5647</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>19672</v>
+        <v>20164</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.02027008370954819</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.010794048071862</v>
+        <v>0.01057175731468095</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.03683008447708996</v>
+        <v>0.03775125167147992</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>20</v>
@@ -4833,19 +4833,19 @@
         <v>19454</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>12209</v>
+        <v>11857</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>29122</v>
+        <v>29028</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.03614632906464613</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.02268600861305447</v>
+        <v>0.02203127574607391</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.05411075488488912</v>
+        <v>0.0539365557633392</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>30</v>
@@ -4854,19 +4854,19 @@
         <v>30281</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>21137</v>
+        <v>20726</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>42876</v>
+        <v>44256</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.02823820856039999</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01971097997786044</v>
+        <v>0.01932787430596895</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.03998433496260284</v>
+        <v>0.04127119981298999</v>
       </c>
     </row>
     <row r="15">
@@ -4883,19 +4883,19 @@
         <v>36524</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>25288</v>
+        <v>25946</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>51330</v>
+        <v>50699</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.06837996203492962</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.04734321150720974</v>
+        <v>0.04857515985248655</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.09609926387921583</v>
+        <v>0.09491818349238496</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>31</v>
@@ -4904,19 +4904,19 @@
         <v>30546</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>21848</v>
+        <v>21203</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>43374</v>
+        <v>42031</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.05675685836533344</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.04059533398321078</v>
+        <v>0.03939658345040464</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.08059166460805978</v>
+        <v>0.07809658012394208</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>63</v>
@@ -4925,19 +4925,19 @@
         <v>67070</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>51979</v>
+        <v>52443</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>86202</v>
+        <v>87000</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.0625464454116811</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.04847265001756274</v>
+        <v>0.04890566855732882</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.08038810293926028</v>
+        <v>0.0811323815714256</v>
       </c>
     </row>
     <row r="16">
@@ -4954,19 +4954,19 @@
         <v>87883</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>72189</v>
+        <v>70446</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>105650</v>
+        <v>107919</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1645327201744671</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1351511972033592</v>
+        <v>0.1318869560054317</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1977962583262759</v>
+        <v>0.2020430674255484</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>93</v>
@@ -4975,19 +4975,19 @@
         <v>98793</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>80509</v>
+        <v>81883</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>119593</v>
+        <v>121030</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1835657094220766</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1495926988848885</v>
+        <v>0.152145190876329</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2222134994882956</v>
+        <v>0.2248836325595316</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>176</v>
@@ -4996,19 +4996,19 @@
         <v>186676</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>164930</v>
+        <v>161207</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>214183</v>
+        <v>213102</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1740851824360292</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1538058255800763</v>
+        <v>0.1503333874567928</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1997369780586155</v>
+        <v>0.1987289509577335</v>
       </c>
     </row>
     <row r="17">
@@ -5025,19 +5025,19 @@
         <v>398903</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>378311</v>
+        <v>375985</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>418614</v>
+        <v>419812</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.746817234081055</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7082655785778231</v>
+        <v>0.7039120331132055</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7837202607749657</v>
+        <v>0.7859631849154598</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>371</v>
@@ -5046,19 +5046,19 @@
         <v>389397</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>365432</v>
+        <v>368525</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>408724</v>
+        <v>411345</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7235311031479438</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6790025925692303</v>
+        <v>0.6847487390499213</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7594417999129413</v>
+        <v>0.764312258817247</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>736</v>
@@ -5067,19 +5067,19 @@
         <v>788300</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>757970</v>
+        <v>757137</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>816588</v>
+        <v>817377</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7351301635918898</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.70684573337389</v>
+        <v>0.7060694142358267</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7615101268693989</v>
+        <v>0.7622460051782829</v>
       </c>
     </row>
     <row r="18">
@@ -5171,19 +5171,19 @@
         <v>125649</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>103887</v>
+        <v>103839</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>151707</v>
+        <v>149082</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.03801261946070124</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.03142901161634241</v>
+        <v>0.03141454622662811</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.04589595453537515</v>
+        <v>0.0451017950841785</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>118</v>
@@ -5192,19 +5192,19 @@
         <v>122477</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>104047</v>
+        <v>100534</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>148363</v>
+        <v>143293</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.03560911786682922</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.03025068349629073</v>
+        <v>0.02922927304073586</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.04313520648717781</v>
+        <v>0.04166115351112426</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>232</v>
@@ -5213,19 +5213,19 @@
         <v>248126</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>218044</v>
+        <v>220448</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>281657</v>
+        <v>280240</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.03678698597067501</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.03232703020919211</v>
+        <v>0.03268350093041142</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.04175826552739651</v>
+        <v>0.0415482227318171</v>
       </c>
     </row>
     <row r="20">
@@ -5242,19 +5242,19 @@
         <v>281140</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>250333</v>
+        <v>250971</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>316747</v>
+        <v>312324</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.08505347104936734</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.07573342665020232</v>
+        <v>0.07592636100097139</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.09582561455138028</v>
+        <v>0.09448758737381706</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>243</v>
@@ -5263,19 +5263,19 @@
         <v>251929</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>221230</v>
+        <v>221751</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>281048</v>
+        <v>282363</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.07324609610675686</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.06432063502886717</v>
+        <v>0.06447199353841356</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.0817121244502363</v>
+        <v>0.08209424336079819</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>506</v>
@@ -5284,19 +5284,19 @@
         <v>533069</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>490565</v>
+        <v>489291</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>581211</v>
+        <v>580176</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.07903245812561623</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.0727308512968807</v>
+        <v>0.07254186049769916</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.08616985646352766</v>
+        <v>0.08601652791549551</v>
       </c>
     </row>
     <row r="21">
@@ -5313,19 +5313,19 @@
         <v>594931</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>544224</v>
+        <v>552510</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>637881</v>
+        <v>645866</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1799849217783677</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1646444228453032</v>
+        <v>0.1671512168144635</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1929787702954289</v>
+        <v>0.1953944500566141</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>528</v>
@@ -5334,19 +5334,19 @@
         <v>555260</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>510773</v>
+        <v>513205</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>592429</v>
+        <v>601890</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1614366469990141</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1485022755446106</v>
+        <v>0.1492094032191836</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1722432565218097</v>
+        <v>0.1749938446953279</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>1086</v>
@@ -5355,19 +5355,19 @@
         <v>1150191</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>1094125</v>
+        <v>1092795</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>1221899</v>
+        <v>1217791</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.170526477145027</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1622140843488565</v>
+        <v>0.1620169765490795</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1811577656704701</v>
+        <v>0.1805487500339778</v>
       </c>
     </row>
     <row r="22">
@@ -5384,19 +5384,19 @@
         <v>2303729</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2247895</v>
+        <v>2244900</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>2358567</v>
+        <v>2357767</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.6969489877115638</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.6800573550844629</v>
+        <v>0.6791512154028593</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.7135391391079702</v>
+        <v>0.7132969361260958</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>2350</v>
@@ -5405,19 +5405,19 @@
         <v>2509826</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>2466013</v>
+        <v>2456987</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>2568809</v>
+        <v>2562158</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.7297081390273998</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.7169700529413919</v>
+        <v>0.7143456671525718</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.7468570029690456</v>
+        <v>0.744923260770861</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>4563</v>
@@ -5426,19 +5426,19 @@
         <v>4813555</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>4730999</v>
+        <v>4738007</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>4888878</v>
+        <v>4891233</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.7136540787586817</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.7014142903965785</v>
+        <v>0.7024533946835706</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.7248212949061374</v>
+        <v>0.7251704501741683</v>
       </c>
     </row>
     <row r="23">
@@ -5769,19 +5769,19 @@
         <v>12412</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>6817</v>
+        <v>6782</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>20383</v>
+        <v>21469</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02149131551058308</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01180445472625061</v>
+        <v>0.01174347947222263</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03529373622337797</v>
+        <v>0.03717378232673946</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>15</v>
@@ -5790,19 +5790,19 @@
         <v>10790</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>6191</v>
+        <v>6089</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>17531</v>
+        <v>17555</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0132225087643327</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.007586862455822223</v>
+        <v>0.00746172739895125</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02148277912342446</v>
+        <v>0.02151218037379823</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>29</v>
@@ -5811,19 +5811,19 @@
         <v>23202</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>15269</v>
+        <v>16276</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>32819</v>
+        <v>34078</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0166493215547002</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01095696072119945</v>
+        <v>0.01167967464413435</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02355037507824709</v>
+        <v>0.02445368972852934</v>
       </c>
     </row>
     <row r="5">
@@ -5840,19 +5840,19 @@
         <v>34391</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>23329</v>
+        <v>23280</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>46577</v>
+        <v>47317</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.0595497907744582</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.04039519804463414</v>
+        <v>0.04031018116543093</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.08064860780401062</v>
+        <v>0.08193011722749285</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>33</v>
@@ -5861,19 +5861,19 @@
         <v>18643</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>12973</v>
+        <v>13234</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>25747</v>
+        <v>25991</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.0228462094914847</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.0158981964942971</v>
+        <v>0.01621724635333595</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.03155134803585577</v>
+        <v>0.03185119689484684</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>67</v>
@@ -5882,19 +5882,19 @@
         <v>53035</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>40126</v>
+        <v>40634</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>67131</v>
+        <v>67573</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.03805714689183235</v>
+        <v>0.03805714689183234</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.02879375048250762</v>
+        <v>0.02915861718516882</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.04817241387930089</v>
+        <v>0.04849001518340194</v>
       </c>
     </row>
     <row r="6">
@@ -5911,19 +5911,19 @@
         <v>63453</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>48021</v>
+        <v>49704</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>81287</v>
+        <v>81147</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1098709734135204</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.08314982387450144</v>
+        <v>0.086064645661324</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1407507123092589</v>
+        <v>0.1405089035853751</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>70</v>
@@ -5932,19 +5932,19 @@
         <v>47289</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>36110</v>
+        <v>37440</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>61248</v>
+        <v>63304</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.05795001382345302</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.04425122590994281</v>
+        <v>0.04588031358136501</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.07505650712164025</v>
+        <v>0.07757561349038916</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>129</v>
@@ -5953,19 +5953,19 @@
         <v>110742</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>92285</v>
+        <v>92246</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>133219</v>
+        <v>132118</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.07946743633330658</v>
+        <v>0.07946743633330659</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.06622310091335311</v>
+        <v>0.06619517531457138</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.09559634047866163</v>
+        <v>0.09480645204753357</v>
       </c>
     </row>
     <row r="7">
@@ -5982,19 +5982,19 @@
         <v>467269</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>445686</v>
+        <v>446737</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>485547</v>
+        <v>487121</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.8090879203014385</v>
+        <v>0.8090879203014386</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.7717167126743402</v>
+        <v>0.7735369867772762</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.8407383872185273</v>
+        <v>0.8434624447213026</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1300</v>
@@ -6003,19 +6003,19 @@
         <v>739305</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>723273</v>
+        <v>721138</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>752194</v>
+        <v>751736</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.9059812679207294</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.8863344538442274</v>
+        <v>0.8837178419786047</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.9217758739598181</v>
+        <v>0.9212142486571729</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1883</v>
@@ -6024,19 +6024,19 @@
         <v>1206575</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1179134</v>
+        <v>1178768</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1230672</v>
+        <v>1228339</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.8658260952201609</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.8461351253775075</v>
+        <v>0.8458721787678911</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.8831179812271057</v>
+        <v>0.8814442807135544</v>
       </c>
     </row>
     <row r="8">
@@ -6128,19 +6128,19 @@
         <v>25501</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>16033</v>
+        <v>14938</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>43234</v>
+        <v>42068</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.0114731851197002</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.007213607919122767</v>
+        <v>0.006720821007036326</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.01945114068497926</v>
+        <v>0.01892697882856168</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>30</v>
@@ -6149,19 +6149,19 @@
         <v>29421</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>18817</v>
+        <v>19856</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>42605</v>
+        <v>44039</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.01363007891054196</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.008717589364709098</v>
+        <v>0.009198758590432347</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.01973824377096997</v>
+        <v>0.02040273664165533</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>52</v>
@@ -6170,19 +6170,19 @@
         <v>54922</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>39821</v>
+        <v>38853</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>75975</v>
+        <v>74562</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.01253583716360972</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.009089153666156235</v>
+        <v>0.008868271905500108</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.01734127631000655</v>
+        <v>0.01701875949971113</v>
       </c>
     </row>
     <row r="10">
@@ -6199,19 +6199,19 @@
         <v>162070</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>134183</v>
+        <v>134154</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>196135</v>
+        <v>195415</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.07291662871886091</v>
+        <v>0.07291662871886093</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0603701999183123</v>
+        <v>0.06035727357065532</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.08824268791596407</v>
+        <v>0.08791892979030902</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>150</v>
@@ -6220,19 +6220,19 @@
         <v>114937</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>96953</v>
+        <v>95298</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>138199</v>
+        <v>137086</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.05324821914840046</v>
+        <v>0.05324821914840047</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04491684654551124</v>
+        <v>0.04414984073560865</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.0640251899911467</v>
+        <v>0.06350983777768533</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>278</v>
@@ -6241,19 +6241,19 @@
         <v>277006</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>243463</v>
+        <v>241405</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>317182</v>
+        <v>315674</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.06322645495173146</v>
+        <v>0.06322645495173145</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.05557019489054515</v>
+        <v>0.05510050747199781</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.07239644291070063</v>
+        <v>0.07205231753440812</v>
       </c>
     </row>
     <row r="11">
@@ -6270,19 +6270,19 @@
         <v>301426</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>263290</v>
+        <v>264060</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>343325</v>
+        <v>340443</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1356142062433051</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1184565431850177</v>
+        <v>0.1188027741160488</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1544649602642814</v>
+        <v>0.1531685552983262</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>374</v>
@@ -6291,19 +6291,19 @@
         <v>258248</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>231423</v>
+        <v>231407</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>286432</v>
+        <v>285899</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1196418510898478</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1072143608081314</v>
+        <v>0.1072070052049083</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1326990819035616</v>
+        <v>0.1324520801216408</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>630</v>
@@ -6312,19 +6312,19 @@
         <v>559674</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>513245</v>
+        <v>514449</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>608237</v>
+        <v>612322</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1277449936182152</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1171476146407887</v>
+        <v>0.1174225794319447</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1388294256687426</v>
+        <v>0.1397619768288993</v>
       </c>
     </row>
     <row r="12">
@@ -6341,19 +6341,19 @@
         <v>1733675</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1686508</v>
+        <v>1689109</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1781551</v>
+        <v>1781706</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.7799959799181336</v>
+        <v>0.7799959799181337</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.758775150736273</v>
+        <v>0.7599454304261688</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.801535606750293</v>
+        <v>0.8016054847482702</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>2353</v>
@@ -6362,19 +6362,19 @@
         <v>1755901</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>1719472</v>
+        <v>1721648</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>1789870</v>
+        <v>1789102</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.8134798508512098</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.7966028871654569</v>
+        <v>0.7976110240111272</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.8292168980559191</v>
+        <v>0.8288611570616669</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>3933</v>
@@ -6383,19 +6383,19 @@
         <v>3489577</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>3432085</v>
+        <v>3432185</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>3543073</v>
+        <v>3549724</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.7964927142664437</v>
+        <v>0.7964927142664435</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.7833702122119142</v>
+        <v>0.7833930060472725</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.8087030236442555</v>
+        <v>0.8102210942834853</v>
       </c>
     </row>
     <row r="13">
@@ -6487,19 +6487,19 @@
         <v>5460</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1718</v>
+        <v>1939</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>14314</v>
+        <v>14262</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.007686169873281582</v>
+        <v>0.007686169873281581</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.002417878159203654</v>
+        <v>0.002730060866555031</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.02014921203022568</v>
+        <v>0.02007583785114454</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>7</v>
@@ -6508,19 +6508,19 @@
         <v>5033</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2098</v>
+        <v>2292</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>9872</v>
+        <v>10379</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.006874335330255621</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.002865954527194745</v>
+        <v>0.003130987954822716</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.01348303881605799</v>
+        <v>0.01417531659585869</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>12</v>
@@ -6529,19 +6529,19 @@
         <v>10494</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>5357</v>
+        <v>5547</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>19645</v>
+        <v>18672</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.007274124474344339</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.003713485552747442</v>
+        <v>0.003845429002557534</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.01361791275541475</v>
+        <v>0.01294348283181636</v>
       </c>
     </row>
     <row r="15">
@@ -6558,19 +6558,19 @@
         <v>32782</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>21857</v>
+        <v>21863</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>49171</v>
+        <v>49965</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.0461448689735496</v>
+        <v>0.04614486897354959</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.03076697852218864</v>
+        <v>0.03077477901958079</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.06921478325141679</v>
+        <v>0.07033296536027822</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>39</v>
@@ -6579,19 +6579,19 @@
         <v>30063</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>21419</v>
+        <v>20830</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>41403</v>
+        <v>40935</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.0410590127918807</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.02925380203083947</v>
+        <v>0.02844877504934326</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.05654688663710144</v>
+        <v>0.05590791654783731</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>66</v>
@@ -6600,19 +6600,19 @@
         <v>62844</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>47091</v>
+        <v>48382</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>80757</v>
+        <v>81912</v>
       </c>
       <c r="U15" s="6" t="n">
-        <v>0.04356355033255874</v>
+        <v>0.04356355033255875</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.03264360800397139</v>
+        <v>0.0335382202437105</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.05598053705866082</v>
+        <v>0.05678109418295887</v>
       </c>
     </row>
     <row r="16">
@@ -6629,19 +6629,19 @@
         <v>82120</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>65571</v>
+        <v>65668</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>103784</v>
+        <v>103645</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1155956252297678</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.09230148132497026</v>
+        <v>0.09243737748983531</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1460916854349166</v>
+        <v>0.1458963473424662</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>122</v>
@@ -6650,19 +6650,19 @@
         <v>89122</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>74415</v>
+        <v>73762</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>106534</v>
+        <v>105783</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1217215252253623</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1016340822145101</v>
+        <v>0.1007423638150093</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1455018626896756</v>
+        <v>0.144476571575951</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>195</v>
@@ -6671,19 +6671,19 @@
         <v>171242</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>150081</v>
+        <v>146930</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>201527</v>
+        <v>197029</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1187048165412462</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.104035794883725</v>
+        <v>0.1018518171377006</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1396982305232683</v>
+        <v>0.1365802409292792</v>
       </c>
     </row>
     <row r="17">
@@ -6700,19 +6700,19 @@
         <v>590043</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>564880</v>
+        <v>563839</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>611386</v>
+        <v>610032</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.830573335923401</v>
+        <v>0.8305733359234009</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7951518931703546</v>
+        <v>0.7936863427678038</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8606167712365461</v>
+        <v>0.8587107747356097</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>833</v>
@@ -6721,19 +6721,19 @@
         <v>607965</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>588384</v>
+        <v>587998</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>625364</v>
+        <v>625149</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8303451266525013</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8036024793630089</v>
+        <v>0.8030757090761028</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8541094546547762</v>
+        <v>0.8538152361625925</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1408</v>
@@ -6742,19 +6742,19 @@
         <v>1198008</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1168023</v>
+        <v>1168244</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1224507</v>
+        <v>1226228</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8304575086518508</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8096719984121489</v>
+        <v>0.8098253733059475</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8488264726532615</v>
+        <v>0.8500197091983802</v>
       </c>
     </row>
     <row r="18">
@@ -6846,19 +6846,19 @@
         <v>43373</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>31128</v>
+        <v>30138</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>63868</v>
+        <v>58293</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01235491660190624</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.008866747485062935</v>
+        <v>0.00858491021211096</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.0181928254099441</v>
+        <v>0.01660498335576225</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>52</v>
@@ -6867,19 +6867,19 @@
         <v>45244</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>32833</v>
+        <v>32938</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>59776</v>
+        <v>61077</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.01220589888956369</v>
+        <v>0.01220589888956368</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.008857700968269728</v>
+        <v>0.008885960044936612</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.01612626940585996</v>
+        <v>0.01647731535187687</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>93</v>
@@ -6888,19 +6888,19 @@
         <v>88617</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>71004</v>
+        <v>70830</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>114158</v>
+        <v>112120</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01227838313309478</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.009838037956177876</v>
+        <v>0.009813949621950644</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.01581726692295581</v>
+        <v>0.01553488614486275</v>
       </c>
     </row>
     <row r="20">
@@ -6917,19 +6917,19 @@
         <v>229243</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>195570</v>
+        <v>194806</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>262677</v>
+        <v>266874</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.0653001380249381</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.0557083245253989</v>
+        <v>0.05549078773956437</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.0748239726196728</v>
+        <v>0.07601942123722508</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>222</v>
@@ -6938,19 +6938,19 @@
         <v>163642</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>143554</v>
+        <v>142534</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>188319</v>
+        <v>191194</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.04414754870818365</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.03872804560363442</v>
+        <v>0.03845287610243212</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.05080480616610858</v>
+        <v>0.05158031462964559</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>411</v>
@@ -6959,19 +6959,19 @@
         <v>392885</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>354577</v>
+        <v>355918</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>437205</v>
+        <v>438771</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.05443645605514513</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.04912862288095658</v>
+        <v>0.04931449746848849</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.06057713878857069</v>
+        <v>0.06079421047041871</v>
       </c>
     </row>
     <row r="21">
@@ -6988,19 +6988,19 @@
         <v>446999</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>399838</v>
+        <v>403941</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>496582</v>
+        <v>493112</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1273282609047399</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1138944761615602</v>
+        <v>0.1150632576855419</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1414521064158346</v>
+        <v>0.1404637949936439</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>566</v>
@@ -7009,19 +7009,19 @@
         <v>394659</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>362781</v>
+        <v>358318</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>431215</v>
+        <v>430512</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.106471293618661</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.09787132225337287</v>
+        <v>0.09666722514245386</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1163334350219637</v>
+        <v>0.1161437680644677</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>954</v>
@@ -7030,19 +7030,19 @@
         <v>841658</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>788360</v>
+        <v>786581</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>899324</v>
+        <v>903666</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1166164063862547</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1092316277735528</v>
+        <v>0.1089852232656942</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1246064439711531</v>
+        <v>0.1252079357007048</v>
       </c>
     </row>
     <row r="22">
@@ -7059,19 +7059,19 @@
         <v>2790987</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2732500</v>
+        <v>2734446</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>2844398</v>
+        <v>2846527</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.7950166844684156</v>
+        <v>0.7950166844684157</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.7783565696020012</v>
+        <v>0.7789108134191919</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.8102307007656575</v>
+        <v>0.8108371994090091</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>4486</v>
@@ -7080,19 +7080,19 @@
         <v>3103172</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>3062225</v>
+        <v>3061615</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>3143966</v>
+        <v>3144328</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.8371752587835918</v>
+        <v>0.8371752587835917</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.8261286604867297</v>
+        <v>0.8259640799308978</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.8481807925760133</v>
+        <v>0.8482783684809361</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>7224</v>
@@ -7101,19 +7101,19 @@
         <v>5894159</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>5818049</v>
+        <v>5821959</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>5963065</v>
+        <v>5967137</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.8166687544255055</v>
+        <v>0.8166687544255053</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.8061233267020023</v>
+        <v>0.8066650593041953</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.8262160920310061</v>
+        <v>0.8267803075427863</v>
       </c>
     </row>
     <row r="23">
